--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -795,10 +807,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -842,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -888,28 +900,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1113,10 +1125,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1160,28 +1172,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1206,28 +1218,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1460,10 +1472,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1507,28 +1519,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1553,28 +1565,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1819,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1854,28 +1866,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1912,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2154,10 +2166,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2201,28 +2213,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2247,28 +2259,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2501,10 +2513,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2548,28 +2560,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2594,28 +2606,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2848,10 +2860,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2895,28 +2907,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2941,28 +2953,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3195,10 +3207,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="J106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3242,28 +3254,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3288,28 +3300,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3542,10 +3554,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="J118" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3589,28 +3601,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3635,28 +3647,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3860,10 +3872,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
+      <c r="J129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3907,28 +3919,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3953,28 +3965,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4207,10 +4219,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
+      <c r="J141" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4254,28 +4266,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4300,28 +4312,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4525,10 +4537,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="J152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4572,28 +4584,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4618,28 +4630,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4785,10 +4797,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
+      <c r="J161" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4832,28 +4844,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4878,28 +4890,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5074,10 +5086,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
+      <c r="J171" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5121,28 +5133,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5167,28 +5179,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5305,10 +5317,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
+      <c r="J179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5352,28 +5364,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5398,28 +5410,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5478,10 +5490,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
+      <c r="J185" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K185" s="2" t="s">
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5525,28 +5537,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5571,28 +5583,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5651,10 +5663,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
+      <c r="J191" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="2" t="s">
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -489,10 +537,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -536,28 +584,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="4">
+      <c r="A14" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="4">
+      <c r="D14" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="4">
+      <c r="E14" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="4">
+      <c r="F14" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="4">
+      <c r="G14" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="4">
+      <c r="H14" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -582,28 +630,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="4">
+      <c r="B16" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="4">
+      <c r="D16" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="4">
+      <c r="E16" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="4">
+      <c r="F16" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="4">
+      <c r="G16" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="4">
+      <c r="H16" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="4">
+      <c r="I16" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -807,10 +855,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -854,28 +902,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="4">
+      <c r="A25" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="B25" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="4">
+      <c r="C25" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D25" t="s" s="4">
+      <c r="D25" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="4">
+      <c r="E25" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="4">
+      <c r="F25" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="4">
+      <c r="G25" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="4">
+      <c r="H25" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -900,28 +948,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="4">
+      <c r="B27" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="4">
+      <c r="C27" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="4">
+      <c r="D27" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="4">
+      <c r="E27" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="4">
+      <c r="F27" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="4">
+      <c r="G27" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="4">
+      <c r="H27" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="4">
+      <c r="I27" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1125,10 +1173,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1172,28 +1220,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="4">
+      <c r="A36" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1218,28 +1266,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="4">
+      <c r="C38" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="4">
+      <c r="D38" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="4">
+      <c r="G38" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="4">
+      <c r="H38" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="4">
+      <c r="I38" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1472,10 +1520,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1519,28 +1567,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="4">
+      <c r="A48" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="4">
+      <c r="C48" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="4">
+      <c r="D48" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="4">
+      <c r="G48" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="4">
+      <c r="H48" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1565,28 +1613,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="4">
+      <c r="C50" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="4">
+      <c r="D50" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="4">
+      <c r="I50" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1819,10 +1867,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J58" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1866,28 +1914,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="4">
+      <c r="A60" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="4">
+      <c r="D60" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1912,28 +1960,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="4">
+      <c r="C62" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="4">
+      <c r="D62" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="4">
+      <c r="G62" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="4">
+      <c r="H62" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="4">
+      <c r="I62" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2166,10 +2214,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K70" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2213,28 +2261,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="4">
+      <c r="A72" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="4">
+      <c r="B72" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="4">
+      <c r="C72" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="4">
+      <c r="D72" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="4">
+      <c r="E72" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="4">
+      <c r="F72" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="4">
+      <c r="G72" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="4">
+      <c r="H72" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2259,28 +2307,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="4">
+      <c r="B74" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="4">
+      <c r="C74" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="4">
+      <c r="D74" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="4">
+      <c r="E74" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="4">
+      <c r="F74" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="4">
+      <c r="G74" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="4">
+      <c r="H74" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="4">
+      <c r="I74" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2513,10 +2561,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="K82" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2560,28 +2608,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="4">
+      <c r="A84" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="4">
+      <c r="C84" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="4">
+      <c r="D84" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2606,28 +2654,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="4">
+      <c r="D86" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="4">
+      <c r="I86" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2860,10 +2908,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="J94" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="K94" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2907,28 +2955,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="4">
+      <c r="A96" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="4">
+      <c r="C96" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D96" t="s" s="4">
+      <c r="D96" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2953,28 +3001,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="4">
+      <c r="I98" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3207,10 +3255,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="4" t="s">
+      <c r="J106" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="4" t="s">
+      <c r="K106" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3254,28 +3302,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="4">
+      <c r="A108" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="4">
+      <c r="B108" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="4">
+      <c r="C108" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D108" t="s" s="4">
+      <c r="D108" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="4">
+      <c r="G108" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="4">
+      <c r="H108" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3300,28 +3348,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="4">
+      <c r="D110" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="4">
+      <c r="I110" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3554,10 +3602,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="4" t="s">
+      <c r="J118" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K118" s="4" t="s">
+      <c r="K118" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3601,28 +3649,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="4">
+      <c r="A120" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="4">
+      <c r="B120" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="4">
+      <c r="C120" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D120" t="s" s="4">
+      <c r="D120" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="4">
+      <c r="E120" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="4">
+      <c r="F120" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="4">
+      <c r="G120" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="4">
+      <c r="H120" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3647,28 +3695,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="4">
+      <c r="C122" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="4">
+      <c r="D122" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="4">
+      <c r="E122" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="4">
+      <c r="F122" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="4">
+      <c r="G122" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="4">
+      <c r="H122" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="4">
+      <c r="I122" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3872,10 +3920,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="4" t="s">
+      <c r="J129" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K129" s="4" t="s">
+      <c r="K129" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3919,28 +3967,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="4">
+      <c r="A131" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="4">
+      <c r="C131" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D131" t="s" s="4">
+      <c r="D131" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="4">
+      <c r="E131" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="4">
+      <c r="F131" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="4">
+      <c r="G131" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="4">
+      <c r="H131" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3965,28 +4013,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="4">
+      <c r="B133" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="4">
+      <c r="C133" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="4">
+      <c r="D133" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="4">
+      <c r="E133" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="4">
+      <c r="F133" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="4">
+      <c r="G133" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="4">
+      <c r="H133" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="4">
+      <c r="I133" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4219,10 +4267,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="4" t="s">
+      <c r="J141" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="4" t="s">
+      <c r="K141" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4266,28 +4314,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="4">
+      <c r="A143" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="4">
+      <c r="B143" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="4">
+      <c r="C143" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D143" t="s" s="4">
+      <c r="D143" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="4">
+      <c r="E143" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="4">
+      <c r="F143" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="4">
+      <c r="G143" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="4">
+      <c r="H143" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4312,28 +4360,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="4">
+      <c r="B145" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="4">
+      <c r="C145" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="4">
+      <c r="D145" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="4">
+      <c r="E145" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="4">
+      <c r="F145" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="4">
+      <c r="G145" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="4">
+      <c r="H145" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="4">
+      <c r="I145" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4537,10 +4585,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="4" t="s">
+      <c r="J152" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="4" t="s">
+      <c r="K152" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4584,28 +4632,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="4">
+      <c r="A154" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="4">
+      <c r="D154" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4630,28 +4678,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="4">
+      <c r="C156" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="4">
+      <c r="D156" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="4">
+      <c r="I156" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4797,10 +4845,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="4" t="s">
+      <c r="J161" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="4" t="s">
+      <c r="K161" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4844,28 +4892,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="4">
+      <c r="A163" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="4">
+      <c r="B163" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="4">
+      <c r="C163" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D163" t="s" s="4">
+      <c r="D163" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="4">
+      <c r="E163" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="4">
+      <c r="F163" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="4">
+      <c r="G163" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="4">
+      <c r="H163" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4890,28 +4938,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="4">
+      <c r="C165" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="4">
+      <c r="D165" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="4">
+      <c r="E165" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="4">
+      <c r="F165" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="4">
+      <c r="G165" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="4">
+      <c r="H165" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="4">
+      <c r="I165" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5086,10 +5134,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="4" t="s">
+      <c r="J171" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="4" t="s">
+      <c r="K171" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5133,28 +5181,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="4">
+      <c r="A173" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="4">
+      <c r="B173" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="4">
+      <c r="C173" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D173" t="s" s="4">
+      <c r="D173" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="4">
+      <c r="E173" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="4">
+      <c r="F173" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="4">
+      <c r="G173" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="4">
+      <c r="H173" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5179,28 +5227,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="4">
+      <c r="B175" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="4">
+      <c r="C175" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="4">
+      <c r="D175" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="4">
+      <c r="E175" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="4">
+      <c r="F175" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="4">
+      <c r="G175" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="4">
+      <c r="H175" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="4">
+      <c r="I175" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5317,10 +5365,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="4" t="s">
+      <c r="J179" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="4" t="s">
+      <c r="K179" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5364,28 +5412,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="4">
+      <c r="A181" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="4">
+      <c r="B181" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="4">
+      <c r="C181" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="4">
+      <c r="D181" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="4">
+      <c r="E181" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="4">
+      <c r="F181" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="4">
+      <c r="G181" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="4">
+      <c r="H181" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5410,28 +5458,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="4">
+      <c r="C183" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="4">
+      <c r="D183" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="4">
+      <c r="I183" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5490,10 +5538,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="4" t="s">
+      <c r="J185" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K185" s="4" t="s">
+      <c r="K185" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5537,28 +5585,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="4">
+      <c r="A187" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="4">
+      <c r="B187" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="4">
+      <c r="C187" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D187" t="s" s="4">
+      <c r="D187" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="4">
+      <c r="E187" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="4">
+      <c r="F187" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="4">
+      <c r="G187" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="4">
+      <c r="H187" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5583,28 +5631,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="4">
+      <c r="B189" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="4">
+      <c r="C189" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="4">
+      <c r="D189" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="4">
+      <c r="E189" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="4">
+      <c r="F189" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="4">
+      <c r="G189" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="4">
+      <c r="H189" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="4">
+      <c r="I189" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5663,10 +5711,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="4" t="s">
+      <c r="J191" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="4" t="s">
+      <c r="K191" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5100" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -537,10 +555,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -584,28 +602,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="12">
+      <c r="A14" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="12">
+      <c r="B14" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="12">
+      <c r="D14" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="12">
+      <c r="E14" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="12">
+      <c r="F14" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="12">
+      <c r="G14" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="12">
+      <c r="H14" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -630,28 +648,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="12">
+      <c r="B16" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C16" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="12">
+      <c r="D16" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="12">
+      <c r="E16" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="12">
+      <c r="F16" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="12">
+      <c r="G16" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="12">
+      <c r="H16" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="12">
+      <c r="I16" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -855,10 +873,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -902,28 +920,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="12">
+      <c r="A25" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="12">
+      <c r="B25" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="12">
+      <c r="C25" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D25" t="s" s="12">
+      <c r="D25" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="12">
+      <c r="E25" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="12">
+      <c r="F25" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="12">
+      <c r="G25" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="12">
+      <c r="H25" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -948,28 +966,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="12">
+      <c r="B27" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="12">
+      <c r="C27" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="12">
+      <c r="D27" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="12">
+      <c r="E27" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="12">
+      <c r="F27" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="12">
+      <c r="G27" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="12">
+      <c r="H27" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="12">
+      <c r="I27" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1173,10 +1191,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1220,28 +1238,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="12">
+      <c r="A36" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="12">
+      <c r="C36" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1266,28 +1284,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="12">
+      <c r="C38" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="12">
+      <c r="D38" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F38" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="12">
+      <c r="I38" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1520,10 +1538,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="K46" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1567,28 +1585,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="12">
+      <c r="A48" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="12">
+      <c r="C48" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="12">
+      <c r="D48" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E48" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F48" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1613,28 +1631,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="12">
+      <c r="C50" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="12">
+      <c r="D50" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="12">
+      <c r="I50" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1867,10 +1885,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="12" t="s">
+      <c r="J58" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="12" t="s">
+      <c r="K58" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1914,28 +1932,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="12">
+      <c r="A60" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="12">
+      <c r="C60" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="12">
+      <c r="D60" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1960,28 +1978,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="12">
+      <c r="B62" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="12">
+      <c r="C62" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="12">
+      <c r="D62" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="12">
+      <c r="E62" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="12">
+      <c r="F62" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="12">
+      <c r="G62" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="12">
+      <c r="H62" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="12">
+      <c r="I62" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2214,10 +2232,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="12" t="s">
+      <c r="J70" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="12" t="s">
+      <c r="K70" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2261,28 +2279,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="12">
+      <c r="A72" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="12">
+      <c r="B72" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="12">
+      <c r="C72" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="12">
+      <c r="D72" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="12">
+      <c r="E72" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="12">
+      <c r="F72" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="12">
+      <c r="G72" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="12">
+      <c r="H72" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2307,28 +2325,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="12">
+      <c r="B74" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="12">
+      <c r="C74" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="12">
+      <c r="D74" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="12">
+      <c r="F74" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="12">
+      <c r="G74" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="12">
+      <c r="I74" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2561,10 +2579,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="12" t="s">
+      <c r="J82" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="12" t="s">
+      <c r="K82" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2608,28 +2626,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="12">
+      <c r="A84" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="12">
+      <c r="C84" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="12">
+      <c r="D84" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2654,28 +2672,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C86" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="12">
+      <c r="I86" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2908,10 +2926,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="12" t="s">
+      <c r="J94" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="12" t="s">
+      <c r="K94" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2955,28 +2973,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="12">
+      <c r="A96" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="12">
+      <c r="C96" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D96" t="s" s="12">
+      <c r="D96" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3001,28 +3019,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="12">
+      <c r="I98" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3255,10 +3273,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="12" t="s">
+      <c r="J106" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="12" t="s">
+      <c r="K106" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3302,28 +3320,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="12">
+      <c r="A108" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="12">
+      <c r="C108" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D108" t="s" s="12">
+      <c r="D108" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="12">
+      <c r="F108" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3348,28 +3366,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="12">
+      <c r="C110" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="12">
+      <c r="D110" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="12">
+      <c r="I110" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3602,10 +3620,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="12" t="s">
+      <c r="J118" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K118" s="12" t="s">
+      <c r="K118" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3649,28 +3667,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="12">
+      <c r="A120" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="12">
+      <c r="B120" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="12">
+      <c r="C120" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D120" t="s" s="12">
+      <c r="D120" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="12">
+      <c r="E120" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="12">
+      <c r="F120" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="12">
+      <c r="G120" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="12">
+      <c r="H120" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3695,28 +3713,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="12">
+      <c r="B122" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="12">
+      <c r="C122" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="12">
+      <c r="D122" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="12">
+      <c r="E122" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="12">
+      <c r="F122" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="12">
+      <c r="G122" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="12">
+      <c r="H122" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="12">
+      <c r="I122" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3920,10 +3938,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="12" t="s">
+      <c r="J129" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K129" s="12" t="s">
+      <c r="K129" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3967,28 +3985,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="12">
+      <c r="A131" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="12">
+      <c r="B131" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="12">
+      <c r="C131" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D131" t="s" s="12">
+      <c r="D131" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="12">
+      <c r="E131" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="12">
+      <c r="F131" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="12">
+      <c r="G131" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="12">
+      <c r="H131" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4013,28 +4031,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="12">
+      <c r="B133" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="12">
+      <c r="C133" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="12">
+      <c r="D133" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="12">
+      <c r="E133" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="12">
+      <c r="F133" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="12">
+      <c r="G133" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="12">
+      <c r="H133" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="12">
+      <c r="I133" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4267,10 +4285,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="12" t="s">
+      <c r="J141" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="12" t="s">
+      <c r="K141" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4314,28 +4332,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="12">
+      <c r="A143" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="12">
+      <c r="B143" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="12">
+      <c r="C143" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D143" t="s" s="12">
+      <c r="D143" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="12">
+      <c r="E143" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="12">
+      <c r="F143" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="12">
+      <c r="G143" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="12">
+      <c r="H143" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4360,28 +4378,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="12">
+      <c r="B145" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="12">
+      <c r="C145" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="12">
+      <c r="D145" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="12">
+      <c r="E145" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="12">
+      <c r="F145" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="12">
+      <c r="G145" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="12">
+      <c r="H145" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="12">
+      <c r="I145" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4585,10 +4603,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="12" t="s">
+      <c r="J152" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="12" t="s">
+      <c r="K152" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4632,28 +4650,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="12">
+      <c r="A154" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="12">
+      <c r="C154" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="12">
+      <c r="D154" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4678,28 +4696,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="12">
+      <c r="C156" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="12">
+      <c r="D156" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="12">
+      <c r="I156" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4845,10 +4863,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="12" t="s">
+      <c r="J161" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="12" t="s">
+      <c r="K161" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4892,28 +4910,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="12">
+      <c r="A163" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="12">
+      <c r="B163" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="12">
+      <c r="C163" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D163" t="s" s="12">
+      <c r="D163" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="12">
+      <c r="E163" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="12">
+      <c r="F163" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="12">
+      <c r="G163" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="12">
+      <c r="H163" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4938,28 +4956,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="12">
+      <c r="B165" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="12">
+      <c r="C165" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="12">
+      <c r="D165" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="12">
+      <c r="E165" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="12">
+      <c r="F165" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="12">
+      <c r="G165" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="12">
+      <c r="H165" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="12">
+      <c r="I165" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5134,10 +5152,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="12" t="s">
+      <c r="J171" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="12" t="s">
+      <c r="K171" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5181,28 +5199,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="12">
+      <c r="A173" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="12">
+      <c r="B173" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="12">
+      <c r="C173" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D173" t="s" s="12">
+      <c r="D173" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="12">
+      <c r="E173" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="12">
+      <c r="F173" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="12">
+      <c r="G173" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="12">
+      <c r="H173" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5227,28 +5245,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="12">
+      <c r="B175" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="12">
+      <c r="C175" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="12">
+      <c r="D175" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="12">
+      <c r="E175" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="12">
+      <c r="F175" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="12">
+      <c r="G175" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="12">
+      <c r="H175" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="12">
+      <c r="I175" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5365,10 +5383,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="12" t="s">
+      <c r="J179" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="12" t="s">
+      <c r="K179" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5412,28 +5430,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="12">
+      <c r="A181" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="12">
+      <c r="B181" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="12">
+      <c r="C181" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="12">
+      <c r="D181" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="12">
+      <c r="E181" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="12">
+      <c r="F181" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="12">
+      <c r="G181" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="12">
+      <c r="H181" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5458,28 +5476,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="12">
+      <c r="C183" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="12">
+      <c r="D183" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="12">
+      <c r="I183" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5538,10 +5556,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="12" t="s">
+      <c r="J185" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K185" s="12" t="s">
+      <c r="K185" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5585,28 +5603,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="12">
+      <c r="A187" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="12">
+      <c r="B187" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="12">
+      <c r="C187" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D187" t="s" s="12">
+      <c r="D187" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="12">
+      <c r="E187" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="12">
+      <c r="F187" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="12">
+      <c r="G187" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="12">
+      <c r="H187" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5631,28 +5649,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="12">
+      <c r="B189" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="12">
+      <c r="C189" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="12">
+      <c r="D189" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="12">
+      <c r="E189" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="12">
+      <c r="F189" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="12">
+      <c r="G189" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="12">
+      <c r="H189" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="12">
+      <c r="I189" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5711,10 +5729,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="12" t="s">
+      <c r="J191" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="12" t="s">
+      <c r="K191" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
